--- a/test/dm/well_strain/SasakiEtal2022.xlsx
+++ b/test/dm/well_strain/SasakiEtal2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/test/dm/well_strain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:40009_{6EC51D8A-0E49-4668-8FE1-29765DCE4103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA81792C-1A3F-4E3A-8E8C-500248E2B524}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:40009_{6EC51D8A-0E49-4668-8FE1-29765DCE4103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF6BB8D7-07F2-4182-BA1D-8D603872E0EA}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SasakiEtal2022" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>inflect</t>
   </si>
   <si>
-    <t>eps_tubing</t>
-  </si>
-  <si>
-    <t>eps_casing</t>
-  </si>
-  <si>
     <t>'mode_1_uncemented_tubing'</t>
   </si>
   <si>
@@ -110,24 +104,6 @@
   </si>
   <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>dist_type_eps_tubing</t>
-  </si>
-  <si>
-    <t>dist_type_eps_casing</t>
-  </si>
-  <si>
-    <t>sigma_mu_eps_tubing</t>
-  </si>
-  <si>
-    <t>sigma_mu_eps_casing</t>
-  </si>
-  <si>
-    <t>sigma_eps_tubing</t>
-  </si>
-  <si>
-    <t>sigma_eps_casing</t>
   </si>
   <si>
     <t>d_production_boring_in</t>
@@ -206,6 +182,30 @@
   </si>
   <si>
     <t>mode_case</t>
+  </si>
+  <si>
+    <t>strain_tubing</t>
+  </si>
+  <si>
+    <t>strain_casing</t>
+  </si>
+  <si>
+    <t>sigma_strain_tubing</t>
+  </si>
+  <si>
+    <t>sigma_strain_casing</t>
+  </si>
+  <si>
+    <t>dist_type_strain_tubing</t>
+  </si>
+  <si>
+    <t>dist_type_strain_casing</t>
+  </si>
+  <si>
+    <t>sigma_mu_strain_tubing</t>
+  </si>
+  <si>
+    <t>sigma_mu_strain_casing</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:BA94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,85 +1114,85 @@
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>0</v>
@@ -1222,28 +1222,28 @@
         <v>9</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
@@ -2422,14 +2422,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY9">
         <f>IF(AZ9="lognormal",BA9,BA9*100)</f>
         <v>0.55444800000000005</v>
       </c>
       <c r="AZ9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA9">
         <v>0.55444800000000005</v>
@@ -2582,14 +2582,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY10">
         <f t="shared" ref="AY10:AY20" si="31">IF(AZ10="lognormal",BA10,BA10*100)</f>
         <v>7.5886800000000001</v>
       </c>
       <c r="AZ10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA10">
         <v>7.5886800000000004E-2</v>
@@ -2742,14 +2742,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY11">
         <f t="shared" si="31"/>
         <v>3.5850100000000005</v>
       </c>
       <c r="AZ11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA11">
         <v>3.5850100000000003E-2</v>
@@ -2902,14 +2902,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY12">
         <f t="shared" si="31"/>
         <v>3.6626699999999999</v>
       </c>
       <c r="AZ12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA12">
         <v>3.6626699999999998E-2</v>
@@ -3074,14 +3074,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY13">
         <f t="shared" si="31"/>
         <v>0.52036959999999999</v>
       </c>
       <c r="AZ13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA13">
         <v>0.52036959999999999</v>
@@ -3246,14 +3246,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY14">
         <f t="shared" si="31"/>
         <v>0.1015194</v>
       </c>
       <c r="AZ14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA14">
         <v>0.1015194</v>
@@ -3418,14 +3418,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY15">
         <f t="shared" si="31"/>
         <v>3.0651799999999998</v>
       </c>
       <c r="AZ15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA15">
         <v>3.06518E-2</v>
@@ -3590,14 +3590,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY16">
         <f t="shared" si="31"/>
         <v>3.9998600000000004</v>
       </c>
       <c r="AZ16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA16">
         <v>3.9998600000000002E-2</v>
@@ -3762,14 +3762,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY17">
         <f t="shared" si="31"/>
         <v>0.62535890000000005</v>
       </c>
       <c r="AZ17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA17">
         <v>0.62535890000000005</v>
@@ -3934,14 +3934,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY18">
         <f t="shared" si="31"/>
         <v>9.2900999999999989</v>
       </c>
       <c r="AZ18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA18">
         <v>9.2900999999999997E-2</v>
@@ -4106,14 +4106,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY19">
         <f t="shared" si="31"/>
         <v>1.84673</v>
       </c>
       <c r="AZ19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA19">
         <v>1.8467299999999999E-2</v>
@@ -4278,14 +4278,14 @@
         <v>1.2840254166877414</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY20">
         <f t="shared" si="31"/>
         <v>2.9013299999999997</v>
       </c>
       <c r="AZ20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA20">
         <v>2.9013299999999999E-2</v>
@@ -11305,7 +11305,7 @@
         <v>500</v>
       </c>
       <c r="E66" t="b">
-        <f t="shared" ref="E66:E97" si="47">IF(D66&gt;=C66,TRUE,FALSE)</f>
+        <f t="shared" ref="E66:E94" si="47">IF(D66&gt;=C66,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F66">
